--- a/Rakkyo/Rakkyo/DB/データベース.xlsx
+++ b/Rakkyo/Rakkyo/DB/データベース.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A8D518-D2A4-4EEB-BC38-007304ABE61F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F1B07-D531-4C4F-984E-EDEBCE80E542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="3" xr2:uid="{C6594385-FFA8-48F5-A16D-78B737F5C564}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C6594385-FFA8-48F5-A16D-78B737F5C564}"/>
   </bookViews>
   <sheets>
     <sheet name="店舗" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>評価</t>
     <rPh sb="0" eb="2">
@@ -157,6 +157,19 @@
     <t>中華</t>
     <rPh sb="0" eb="2">
       <t>チュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>華味鶏</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ドリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -216,11 +229,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,9 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE555F1-A253-4D98-AB75-EF31B1584B78}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -558,6 +576,14 @@
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -568,10 +594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986921C6-1A6E-48FB-9A5A-E82A19D7C02A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -605,6 +631,30 @@
         <v>1</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
     </row>
@@ -621,6 +671,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -634,7 +687,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,総合評価!A2)/COUNTIFS(評価!$A$2:$A$200,総合評価!A2)</f>
         <v>4.333333333333333</v>
       </c>
@@ -643,9 +696,9 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="e">
+      <c r="B3" s="2">
         <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,総合評価!A3)/COUNTIFS(評価!$A$2:$A$200,総合評価!A3)</f>
-        <v>#DIV/0!</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3E4B86-8BE4-4F4B-AA3B-488C6B6A916B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/Rakkyo/Rakkyo/DB/データベース.xlsx
+++ b/Rakkyo/Rakkyo/DB/データベース.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F1B07-D531-4C4F-984E-EDEBCE80E542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B944517B-9D8C-4B6E-901C-0CB9F5489077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C6594385-FFA8-48F5-A16D-78B737F5C564}"/>
   </bookViews>
   <sheets>
     <sheet name="店舗" sheetId="1" r:id="rId1"/>
     <sheet name="評価" sheetId="2" r:id="rId2"/>
-    <sheet name="総合評価" sheetId="3" r:id="rId3"/>
-    <sheet name="明細" sheetId="4" r:id="rId4"/>
-    <sheet name="口コミ" sheetId="5" r:id="rId5"/>
+    <sheet name="明細" sheetId="4" r:id="rId3"/>
+    <sheet name="口コミ" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>評価</t>
     <rPh sb="0" eb="2">
@@ -170,6 +169,26 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定食 水炊き 福岡</t>
+    <rPh sb="0" eb="2">
+      <t>テイショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミズタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀座</t>
+    <rPh sb="0" eb="2">
+      <t>ギンザ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -554,36 +573,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE555F1-A253-4D98-AB75-EF31B1584B78}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2" s="2">
+        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,A2)/COUNTIFS(評価!$A$2:$A$200,A2)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,A3)/COUNTIFS(評価!$A$2:$A$200,A3)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -665,106 +717,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C945E-77EB-4BDD-A6E3-45B66650EDD7}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3E4B86-8BE4-4F4B-AA3B-488C6B6A916B}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,総合評価!A2)/COUNTIFS(評価!$A$2:$A$200,総合評価!A2)</f>
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,総合評価!A3)/COUNTIFS(評価!$A$2:$A$200,総合評価!A3)</f>
-        <v>4.666666666666667</v>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{D1A26F6B-1C5F-40B2-9468-4F25B9A1D40D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3E4B86-8BE4-4F4B-AA3B-488C6B6A916B}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{D1A26F6B-1C5F-40B2-9468-4F25B9A1D40D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7234C5-50AD-473A-A833-BFF1D8D34A01}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/Rakkyo/Rakkyo/DB/データベース.xlsx
+++ b/Rakkyo/Rakkyo/DB/データベース.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B944517B-9D8C-4B6E-901C-0CB9F5489077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34D0B2B-7575-4D98-AE40-8A4672D0378A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C6594385-FFA8-48F5-A16D-78B737F5C564}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{C6594385-FFA8-48F5-A16D-78B737F5C564}"/>
   </bookViews>
   <sheets>
     <sheet name="店舗" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>評価</t>
     <rPh sb="0" eb="2">
@@ -73,40 +73,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>禁煙喫煙</t>
-    <rPh sb="0" eb="2">
-      <t>キンエン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キツエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>銀座</t>
     <rPh sb="0" eb="2">
       <t>ギンザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>禁煙</t>
-    <rPh sb="0" eb="2">
-      <t>キンエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>支払方法</t>
-    <rPh sb="0" eb="4">
-      <t>シハライホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カード可</t>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -189,6 +158,58 @@
     <t>銀座</t>
     <rPh sb="0" eb="2">
       <t>ギンザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現金</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子マネー</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QR決済</t>
+    <rPh sb="2" eb="4">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗名</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョーズ上海</t>
+    <rPh sb="4" eb="6">
+      <t>シャンハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.hanamidori.net/store/archives/20</t>
+  </si>
+  <si>
+    <t>華味鶏</t>
+    <rPh sb="0" eb="3">
+      <t>ハナミドリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,19 +594,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE555F1-A253-4D98-AB75-EF31B1584B78}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -596,13 +619,28 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -614,32 +652,66 @@
         <v>4.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,A3)/COUNTIFS(評価!$A$2:$A$200,A3)</f>
         <v>4.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{62696202-F151-4582-86DB-E7AFBFBE2D70}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{7B07C267-540A-4D77-BD9B-5616F74597C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -718,46 +790,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3E4B86-8BE4-4F4B-AA3B-488C6B6A916B}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
+      <c r="F2" s="2">
+        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,A2)/COUNTIFS(評価!$A$2:$A$200,A2)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,A3)/COUNTIFS(評価!$A$2:$A$200,A3)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{D1A26F6B-1C5F-40B2-9468-4F25B9A1D40D}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{58F6B9AE-1079-43DE-B349-6C46C1EA13B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -778,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -786,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -794,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -802,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Rakkyo/Rakkyo/DB/データベース.xlsx
+++ b/Rakkyo/Rakkyo/DB/データベース.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34D0B2B-7575-4D98-AE40-8A4672D0378A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940EB083-8825-4965-A230-98838C11395C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{C6594385-FFA8-48F5-A16D-78B737F5C564}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C6594385-FFA8-48F5-A16D-78B737F5C564}"/>
   </bookViews>
   <sheets>
     <sheet name="店舗" sheetId="1" r:id="rId1"/>
     <sheet name="評価" sheetId="2" r:id="rId2"/>
-    <sheet name="明細" sheetId="4" r:id="rId3"/>
-    <sheet name="口コミ" sheetId="5" r:id="rId4"/>
+    <sheet name="口コミ" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,212 +22,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+  <si>
+    <t>店舗CD</t>
+  </si>
   <si>
     <t>評価</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口コミ</t>
+  </si>
+  <si>
+    <t>酢豚がうまい</t>
+  </si>
+  <si>
+    <t>麻婆豆腐がめっちゃ辛い</t>
+  </si>
+  <si>
+    <t>雰囲気がおしゃれ</t>
+  </si>
+  <si>
+    <t>店舗名</t>
+  </si>
+  <si>
+    <t>総合評価</t>
+  </si>
+  <si>
+    <t>ジャンル</t>
+  </si>
+  <si>
+    <t>場所</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>現金</t>
+  </si>
+  <si>
+    <t>カード</t>
+  </si>
+  <si>
+    <t>電子マネー</t>
+  </si>
+  <si>
+    <t>QR決済</t>
+  </si>
+  <si>
+    <t>更新日</t>
   </si>
   <si>
     <t>ジョーズ上海</t>
-    <rPh sb="4" eb="6">
-      <t>シャンハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>店舗CD</t>
-    <rPh sb="0" eb="2">
-      <t>テンポ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総合評価</t>
-    <rPh sb="0" eb="2">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>店舗名</t>
-    <rPh sb="0" eb="2">
-      <t>テンポ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中華</t>
   </si>
   <si>
     <t>銀座</t>
-    <rPh sb="0" eb="2">
-      <t>ギンザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>口コミ</t>
-    <rPh sb="0" eb="1">
-      <t>クチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://tabelog.com/tokyo/A1301/A130101/13117961/</t>
   </si>
   <si>
-    <t>酢豚がうまい</t>
-    <rPh sb="0" eb="2">
-      <t>スブタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>麻婆豆腐がめっちゃ辛い</t>
-    <rPh sb="0" eb="4">
-      <t>マーボードウフ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雰囲気がおしゃれ</t>
-    <rPh sb="0" eb="3">
-      <t>フンイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中華</t>
-    <rPh sb="0" eb="2">
-      <t>チュウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>華味鶏</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ドリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>定食 水炊き 福岡</t>
-    <rPh sb="0" eb="2">
-      <t>テイショク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミズタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フクオカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>銀座</t>
-    <rPh sb="0" eb="2">
-      <t>ギンザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現金</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電子マネー</t>
-    <rPh sb="0" eb="2">
-      <t>デンシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>QR決済</t>
-    <rPh sb="2" eb="4">
-      <t>ケッサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>店舗名</t>
-    <rPh sb="0" eb="2">
-      <t>テンポ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジョーズ上海</t>
-    <rPh sb="4" eb="6">
-      <t>シャンハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://www.hanamidori.net/store/archives/20</t>
   </si>
   <si>
-    <t>華味鶏</t>
-    <rPh sb="0" eb="3">
-      <t>ハナミドリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>オムライスがおいしい</t>
+  </si>
+  <si>
+    <t>卵と私</t>
+  </si>
+  <si>
+    <t>オムライス</t>
+  </si>
+  <si>
+    <t>八重チカ</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>2020/09/05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -265,18 +164,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE555F1-A253-4D98-AB75-EF31B1584B78}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -606,59 +517,63 @@
     <col min="4" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <f>SUMIFS(評価!$B$2:$B$130,評価!$A$2:$A$130,A2)/COUNTIFS(評価!$A$2:$A$130,A2)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,A2)/COUNTIFS(評価!$A$2:$A$200,A2)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -672,26 +587,29 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K2" s="3">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
-        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,A3)/COUNTIFS(評価!$A$2:$A$200,A3)</f>
+        <f>SUMIFS(評価!$B$2:$B$130,評価!$A$2:$A$130,A3)/COUNTIFS(評価!$A$2:$A$130,A3)</f>
         <v>4.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -704,13 +622,52 @@
       </c>
       <c r="J3" t="b">
         <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6">
+        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,A4)/COUNTIFS(評価!$A$2:$A$200,A4)</f>
+        <v>1.3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{62696202-F151-4582-86DB-E7AFBFBE2D70}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{7B07C267-540A-4D77-BD9B-5616F74597C2}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -718,20 +675,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986921C6-1A6E-48FB-9A5A-E82A19D7C02A}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -780,6 +737,14 @@
       </c>
       <c r="B7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -789,145 +754,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3E4B86-8BE4-4F4B-AA3B-488C6B6A916B}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2">
-        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,A2)/COUNTIFS(評価!$A$2:$A$200,A2)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2">
-        <f>SUMIFS(評価!$B$2:$B$200,評価!$A$2:$A$200,A3)/COUNTIFS(評価!$A$2:$A$200,A3)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D1A26F6B-1C5F-40B2-9468-4F25B9A1D40D}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{58F6B9AE-1079-43DE-B349-6C46C1EA13B6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7234C5-50AD-473A-A833-BFF1D8D34A01}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -935,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -943,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -951,7 +792,15 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
